--- a/data/preprocessed/honduras/ff2.0/hon_ff2.0_habitat_sites_preprocessed.xlsx
+++ b/data/preprocessed/honduras/ff2.0/hon_ff2.0_habitat_sites_preprocessed.xlsx
@@ -580,6 +580,12 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C12">
+        <v>16.393</v>
+      </c>
+      <c r="D12">
+        <v>-86.274</v>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>Honduras</t>
@@ -597,6 +603,12 @@
           <t>11</t>
         </is>
       </c>
+      <c r="C13">
+        <v>16.398</v>
+      </c>
+      <c r="D13">
+        <v>-86.26900000000001</v>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>Honduras</t>
@@ -699,6 +711,12 @@
           <t>7</t>
         </is>
       </c>
+      <c r="C19">
+        <v>16.358</v>
+      </c>
+      <c r="D19">
+        <v>-86.289</v>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>Honduras</t>
@@ -716,6 +734,12 @@
           <t>8</t>
         </is>
       </c>
+      <c r="C20">
+        <v>16.362</v>
+      </c>
+      <c r="D20">
+        <v>-86.279</v>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>Honduras</t>
@@ -732,6 +756,12 @@
         <is>
           <t>6</t>
         </is>
+      </c>
+      <c r="C21">
+        <v>16.374</v>
+      </c>
+      <c r="D21">
+        <v>-86.283</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
